--- a/logical-functions-gjm-start.xlsx
+++ b/logical-functions-gjm-start.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alphad.sharepoint.com/sites/Clients/Shared Documents/HSBC/2023/12199 - HSBC EMEA - Excel Training Sheffield Grads 2023/Materials/Session 4- IF Functions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\hsbc-if-functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{612E2416-20E7-47CC-AEDA-24859B6CBC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92709748-2CDA-4B99-8AD1-F1237BD9BEF7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06498E6D-2B0F-448B-B632-64BD08A4034C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4118" yWindow="788" windowWidth="14040" windowHeight="9082" activeTab="1" xr2:uid="{10F93473-B6B8-404C-A8E1-8F56B0329D91}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="14039" windowHeight="9082" xr2:uid="{10F93473-B6B8-404C-A8E1-8F56B0329D91}"/>
   </bookViews>
   <sheets>
     <sheet name="commissions" sheetId="10" r:id="rId1"/>
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40882DA7-08DA-438E-9955-3013D39D38FB}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1495,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96677E9-1D62-46B4-BFCD-FA9CBAF762C8}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
